--- a/bbdc_extraction/bbdc_fillings.xlsx
+++ b/bbdc_extraction/bbdc_fillings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Jaison\Transfer\Jaison\MSPPM - DA\RAship\RAShip Tepper\Pandas Extraction\BBDC Extraction\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pysol\Desktop\projects\sec_filings\bbdc_extraction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2FD984D-1101-463E-A629-763CFC641171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE5C9859-E4C8-4B6E-BC50-828783EC2A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8A28C3BC-3C98-47F8-A63C-E4ACD2B5A485}"/>
+    <workbookView xWindow="-28920" yWindow="1725" windowWidth="29040" windowHeight="15720" xr2:uid="{8A28C3BC-3C98-47F8-A63C-E4ACD2B5A485}"/>
   </bookViews>
   <sheets>
     <sheet name="BBDC" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="146">
   <si>
     <t>Triangle Capital CORP</t>
   </si>
@@ -462,6 +462,18 @@
   </si>
   <si>
     <t>Issue with second page not extracted</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/1379785/000137978522000042/bbdc-20220930.htm</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/1379785/000137978523000012/bbdc-20221231.htm</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/1379785/000137978523000028/bbdc-20230331.htm</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/1379785/000137978523000040/bbdc-20230630.htm</t>
   </si>
 </sst>
 </file>
@@ -543,16 +555,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -868,24 +881,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{811BB383-F4C5-4096-965E-04E74E763D44}">
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" customWidth="1"/>
-    <col min="3" max="3" width="3.42578125" customWidth="1"/>
-    <col min="4" max="4" width="4.5703125" customWidth="1"/>
+    <col min="2" max="2" width="8.81640625" customWidth="1"/>
+    <col min="3" max="3" width="25.1796875" customWidth="1"/>
+    <col min="4" max="4" width="4.54296875" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="1.85546875" customWidth="1"/>
-    <col min="8" max="8" width="89.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="74" customWidth="1"/>
+    <col min="8" max="8" width="89.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>133</v>
       </c>
@@ -911,7 +925,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -937,7 +951,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -963,7 +977,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -989,7 +1003,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1015,7 +1029,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1041,7 +1055,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1070,7 +1084,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1096,7 +1110,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1122,7 +1136,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1148,7 +1162,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1174,7 +1188,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1200,7 +1214,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1226,7 +1240,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1252,7 +1266,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1278,7 +1292,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1304,7 +1318,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1330,7 +1344,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1356,7 +1370,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1382,7 +1396,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1408,7 +1422,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1434,7 +1448,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1460,7 +1474,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1486,7 +1500,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1512,7 +1526,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1538,7 +1552,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1564,7 +1578,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1590,7 +1604,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1616,7 +1630,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1642,7 +1656,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1668,7 +1682,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1694,7 +1708,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1720,7 +1734,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1746,7 +1760,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1772,7 +1786,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1798,7 +1812,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1824,7 +1838,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1850,7 +1864,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1876,7 +1890,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1902,7 +1916,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1928,7 +1942,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1954,7 +1968,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1980,7 +1994,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2006,7 +2020,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -2030,6 +2044,74 @@
       </c>
       <c r="H44" s="3" t="s">
         <v>132</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B45">
+        <v>1379786</v>
+      </c>
+      <c r="C45" t="s">
+        <v>84</v>
+      </c>
+      <c r="D45" t="s">
+        <v>2</v>
+      </c>
+      <c r="E45" s="5">
+        <v>44875</v>
+      </c>
+      <c r="H45" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B46">
+        <v>1379787</v>
+      </c>
+      <c r="C46" t="s">
+        <v>84</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1</v>
+      </c>
+      <c r="E46" s="5">
+        <v>44980</v>
+      </c>
+      <c r="H46" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B47">
+        <v>1379788</v>
+      </c>
+      <c r="C47" t="s">
+        <v>84</v>
+      </c>
+      <c r="D47" t="s">
+        <v>2</v>
+      </c>
+      <c r="E47" s="5">
+        <v>45050</v>
+      </c>
+      <c r="H47" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B48">
+        <v>1379789</v>
+      </c>
+      <c r="C48" t="s">
+        <v>84</v>
+      </c>
+      <c r="D48" t="s">
+        <v>2</v>
+      </c>
+      <c r="E48" s="5">
+        <v>45147</v>
+      </c>
+      <c r="H48" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
